--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8730476666666668</v>
+        <v>0.90715</v>
       </c>
       <c r="H2">
-        <v>2.619143</v>
+        <v>2.72145</v>
       </c>
       <c r="I2">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="J2">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8080803333333334</v>
+        <v>1.461859</v>
       </c>
       <c r="N2">
-        <v>2.424241</v>
+        <v>4.385577</v>
       </c>
       <c r="O2">
-        <v>0.1201613829001973</v>
+        <v>0.1790970628189019</v>
       </c>
       <c r="P2">
-        <v>0.1201613829001973</v>
+        <v>0.1790970628189019</v>
       </c>
       <c r="Q2">
-        <v>0.7054926494958891</v>
+        <v>1.32612539185</v>
       </c>
       <c r="R2">
-        <v>6.349433845463001</v>
+        <v>11.93512852665</v>
       </c>
       <c r="S2">
-        <v>0.002091924179578375</v>
+        <v>0.003076547147348242</v>
       </c>
       <c r="T2">
-        <v>0.002091924179578375</v>
+        <v>0.003076547147348241</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8730476666666668</v>
+        <v>0.90715</v>
       </c>
       <c r="H3">
-        <v>2.619143</v>
+        <v>2.72145</v>
       </c>
       <c r="I3">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="J3">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.688853</v>
       </c>
       <c r="O3">
-        <v>0.1828438995114518</v>
+        <v>0.1506444277390854</v>
       </c>
       <c r="P3">
-        <v>0.1828438995114517</v>
+        <v>0.1506444277390854</v>
       </c>
       <c r="Q3">
-        <v>1.073514834775445</v>
+        <v>1.115447666316667</v>
       </c>
       <c r="R3">
-        <v>9.661633512979</v>
+        <v>10.03902899685</v>
       </c>
       <c r="S3">
-        <v>0.003183182194183758</v>
+        <v>0.002587784953755688</v>
       </c>
       <c r="T3">
-        <v>0.003183182194183757</v>
+        <v>0.002587784953755686</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8730476666666668</v>
+        <v>0.90715</v>
       </c>
       <c r="H4">
-        <v>2.619143</v>
+        <v>2.72145</v>
       </c>
       <c r="I4">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="J4">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.611940333333333</v>
+        <v>5.443148666666667</v>
       </c>
       <c r="N4">
-        <v>13.835821</v>
+        <v>16.329446</v>
       </c>
       <c r="O4">
-        <v>0.6857945991836579</v>
+        <v>0.6668577056245659</v>
       </c>
       <c r="P4">
-        <v>0.6857945991836578</v>
+        <v>0.6668577056245659</v>
       </c>
       <c r="Q4">
-        <v>4.026443746822556</v>
+        <v>4.937752312966667</v>
       </c>
       <c r="R4">
-        <v>36.237993721403</v>
+        <v>44.4397708167</v>
       </c>
       <c r="S4">
-        <v>0.01193919601814269</v>
+        <v>0.01145534795286394</v>
       </c>
       <c r="T4">
-        <v>0.01193919601814269</v>
+        <v>0.01145534795286393</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8730476666666668</v>
+        <v>0.90715</v>
       </c>
       <c r="H5">
-        <v>2.619143</v>
+        <v>2.72145</v>
       </c>
       <c r="I5">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="J5">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.07532033333333334</v>
+        <v>0.02775866666666667</v>
       </c>
       <c r="N5">
-        <v>0.225961</v>
+        <v>0.083276</v>
       </c>
       <c r="O5">
-        <v>0.01120011840469304</v>
+        <v>0.003400803817446799</v>
       </c>
       <c r="P5">
-        <v>0.01120011840469304</v>
+        <v>0.003400803817446798</v>
       </c>
       <c r="Q5">
-        <v>0.06575824126922224</v>
+        <v>0.02518127446666667</v>
       </c>
       <c r="R5">
-        <v>0.5918241714230001</v>
+        <v>0.2266314702</v>
       </c>
       <c r="S5">
-        <v>0.0001949860923652843</v>
+        <v>5.841934601594551E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001949860923652843</v>
+        <v>5.841934601594549E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.757538</v>
       </c>
       <c r="I6">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="J6">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8080803333333334</v>
+        <v>1.461859</v>
       </c>
       <c r="N6">
-        <v>2.424241</v>
+        <v>4.385577</v>
       </c>
       <c r="O6">
-        <v>0.1201613829001973</v>
+        <v>0.1790970628189019</v>
       </c>
       <c r="P6">
-        <v>0.1201613829001973</v>
+        <v>0.1790970628189019</v>
       </c>
       <c r="Q6">
-        <v>1.012130853184222</v>
+        <v>1.830996914380667</v>
       </c>
       <c r="R6">
-        <v>9.109177678658002</v>
+        <v>16.478972229426</v>
       </c>
       <c r="S6">
-        <v>0.003001166640341733</v>
+        <v>0.004247824804774153</v>
       </c>
       <c r="T6">
-        <v>0.003001166640341733</v>
+        <v>0.004247824804774153</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.757538</v>
       </c>
       <c r="I7">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="J7">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.688853</v>
       </c>
       <c r="O7">
-        <v>0.1828438995114518</v>
+        <v>0.1506444277390854</v>
       </c>
       <c r="P7">
-        <v>0.1828438995114517</v>
+        <v>0.1506444277390854</v>
       </c>
       <c r="Q7">
         <v>1.540111702657111</v>
@@ -883,10 +883,10 @@
         <v>13.861005323914</v>
       </c>
       <c r="S7">
-        <v>0.004566733490904792</v>
+        <v>0.003572985099695104</v>
       </c>
       <c r="T7">
-        <v>0.004566733490904791</v>
+        <v>0.003572985099695103</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.757538</v>
       </c>
       <c r="I8">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="J8">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.611940333333333</v>
+        <v>5.443148666666667</v>
       </c>
       <c r="N8">
-        <v>13.835821</v>
+        <v>16.329446</v>
       </c>
       <c r="O8">
-        <v>0.6857945991836579</v>
+        <v>0.6668577056245659</v>
       </c>
       <c r="P8">
-        <v>0.6857945991836578</v>
+        <v>0.6668577056245659</v>
       </c>
       <c r="Q8">
-        <v>5.776513685410889</v>
+        <v>6.817612651549779</v>
       </c>
       <c r="R8">
-        <v>51.988623168698</v>
+        <v>61.358513863948</v>
       </c>
       <c r="S8">
-        <v>0.01712849688910451</v>
+        <v>0.01581653355237409</v>
       </c>
       <c r="T8">
-        <v>0.0171284968891045</v>
+        <v>0.01581653355237408</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.757538</v>
       </c>
       <c r="I9">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="J9">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.07532033333333334</v>
+        <v>0.02775866666666667</v>
       </c>
       <c r="N9">
-        <v>0.225961</v>
+        <v>0.083276</v>
       </c>
       <c r="O9">
-        <v>0.01120011840469304</v>
+        <v>0.003400803817446799</v>
       </c>
       <c r="P9">
-        <v>0.01120011840469304</v>
+        <v>0.003400803817446798</v>
       </c>
       <c r="Q9">
-        <v>0.09433967155755557</v>
+        <v>0.03476808160977778</v>
       </c>
       <c r="R9">
-        <v>0.8490570440180002</v>
+        <v>0.3129127344880001</v>
       </c>
       <c r="S9">
-        <v>0.0002797356431222219</v>
+        <v>8.066027764245673E-05</v>
       </c>
       <c r="T9">
-        <v>0.0002797356431222218</v>
+        <v>8.066027764245672E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.389349666666666</v>
+        <v>2.247832333333333</v>
       </c>
       <c r="H10">
-        <v>7.168049</v>
+        <v>6.743497</v>
       </c>
       <c r="I10">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106988</v>
       </c>
       <c r="J10">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106987</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8080803333333334</v>
+        <v>1.461859</v>
       </c>
       <c r="N10">
-        <v>2.424241</v>
+        <v>4.385577</v>
       </c>
       <c r="O10">
-        <v>0.1201613829001973</v>
+        <v>0.1790970628189019</v>
       </c>
       <c r="P10">
-        <v>0.1201613829001973</v>
+        <v>0.1790970628189019</v>
       </c>
       <c r="Q10">
-        <v>1.930786475089889</v>
+        <v>3.286013926974332</v>
       </c>
       <c r="R10">
-        <v>17.377078275809</v>
+        <v>29.57412534276899</v>
       </c>
       <c r="S10">
-        <v>0.00572516087266048</v>
+        <v>0.007623394314979671</v>
       </c>
       <c r="T10">
-        <v>0.00572516087266048</v>
+        <v>0.007623394314979669</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.389349666666666</v>
+        <v>2.247832333333333</v>
       </c>
       <c r="H11">
-        <v>7.168049</v>
+        <v>6.743497</v>
       </c>
       <c r="I11">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106988</v>
       </c>
       <c r="J11">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106987</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.688853</v>
       </c>
       <c r="O11">
-        <v>0.1828438995114518</v>
+        <v>0.1506444277390854</v>
       </c>
       <c r="P11">
-        <v>0.1828438995114517</v>
+        <v>0.1506444277390854</v>
       </c>
       <c r="Q11">
-        <v>2.937986561977445</v>
+        <v>2.763974348771222</v>
       </c>
       <c r="R11">
-        <v>26.441879057797</v>
+        <v>24.875769138941</v>
       </c>
       <c r="S11">
-        <v>0.008711706823123702</v>
+        <v>0.006412287593854973</v>
       </c>
       <c r="T11">
-        <v>0.008711706823123702</v>
+        <v>0.006412287593854971</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.389349666666666</v>
+        <v>2.247832333333333</v>
       </c>
       <c r="H12">
-        <v>7.168049</v>
+        <v>6.743497</v>
       </c>
       <c r="I12">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106988</v>
       </c>
       <c r="J12">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106987</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.611940333333333</v>
+        <v>5.443148666666667</v>
       </c>
       <c r="N12">
-        <v>13.835821</v>
+        <v>16.329446</v>
       </c>
       <c r="O12">
-        <v>0.6857945991836579</v>
+        <v>0.6668577056245659</v>
       </c>
       <c r="P12">
-        <v>0.6857945991836578</v>
+        <v>0.6668577056245659</v>
       </c>
       <c r="Q12">
-        <v>11.01953809813655</v>
+        <v>12.23528556807356</v>
       </c>
       <c r="R12">
-        <v>99.175842883229</v>
+        <v>110.117570112662</v>
       </c>
       <c r="S12">
-        <v>0.03267509337163021</v>
+        <v>0.02838527423031623</v>
       </c>
       <c r="T12">
-        <v>0.0326750933716302</v>
+        <v>0.02838527423031622</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.389349666666666</v>
+        <v>2.247832333333333</v>
       </c>
       <c r="H13">
-        <v>7.168049</v>
+        <v>6.743497</v>
       </c>
       <c r="I13">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106988</v>
       </c>
       <c r="J13">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106987</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.07532033333333334</v>
+        <v>0.02775866666666667</v>
       </c>
       <c r="N13">
-        <v>0.225961</v>
+        <v>0.083276</v>
       </c>
       <c r="O13">
-        <v>0.01120011840469304</v>
+        <v>0.003400803817446799</v>
       </c>
       <c r="P13">
-        <v>0.01120011840469304</v>
+        <v>0.003400803817446798</v>
       </c>
       <c r="Q13">
-        <v>0.1799666133432222</v>
+        <v>0.06239682846355556</v>
       </c>
       <c r="R13">
-        <v>1.619699520089</v>
+        <v>0.561571456172</v>
       </c>
       <c r="S13">
-        <v>0.0005336363323395796</v>
+        <v>0.0001447576419190103</v>
       </c>
       <c r="T13">
-        <v>0.0005336363323395796</v>
+        <v>0.0001447576419190102</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>45.633473</v>
+        <v>48.40102466666667</v>
       </c>
       <c r="H14">
-        <v>136.900419</v>
+        <v>145.203074</v>
       </c>
       <c r="I14">
-        <v>0.9099689814525027</v>
+        <v>0.9165381830844606</v>
       </c>
       <c r="J14">
-        <v>0.9099689814525026</v>
+        <v>0.9165381830844604</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8080803333333334</v>
+        <v>1.461859</v>
       </c>
       <c r="N14">
-        <v>2.424241</v>
+        <v>4.385577</v>
       </c>
       <c r="O14">
-        <v>0.1201613829001973</v>
+        <v>0.1790970628189019</v>
       </c>
       <c r="P14">
-        <v>0.1201613829001973</v>
+        <v>0.1790970628189019</v>
       </c>
       <c r="Q14">
-        <v>36.87551207299767</v>
+        <v>70.75547351818867</v>
       </c>
       <c r="R14">
-        <v>331.879608656979</v>
+        <v>636.799261663698</v>
       </c>
       <c r="S14">
-        <v>0.1093431312076167</v>
+        <v>0.1641492965517999</v>
       </c>
       <c r="T14">
-        <v>0.1093431312076167</v>
+        <v>0.1641492965517998</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>45.633473</v>
+        <v>48.40102466666667</v>
       </c>
       <c r="H15">
-        <v>136.900419</v>
+        <v>145.203074</v>
       </c>
       <c r="I15">
-        <v>0.9099689814525027</v>
+        <v>0.9165381830844606</v>
       </c>
       <c r="J15">
-        <v>0.9099689814525026</v>
+        <v>0.9165381830844604</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.688853</v>
       </c>
       <c r="O15">
-        <v>0.1828438995114518</v>
+        <v>0.1506444277390854</v>
       </c>
       <c r="P15">
-        <v>0.1828438995114517</v>
+        <v>0.1506444277390854</v>
       </c>
       <c r="Q15">
-        <v>56.11172459215634</v>
+        <v>59.51475501490246</v>
       </c>
       <c r="R15">
-        <v>505.005521329407</v>
+        <v>535.632795134122</v>
       </c>
       <c r="S15">
-        <v>0.1663822770032395</v>
+        <v>0.1380713700917796</v>
       </c>
       <c r="T15">
-        <v>0.1663822770032395</v>
+        <v>0.1380713700917796</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>45.633473</v>
+        <v>48.40102466666667</v>
       </c>
       <c r="H16">
-        <v>136.900419</v>
+        <v>145.203074</v>
       </c>
       <c r="I16">
-        <v>0.9099689814525027</v>
+        <v>0.9165381830844606</v>
       </c>
       <c r="J16">
-        <v>0.9099689814525026</v>
+        <v>0.9165381830844604</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.611940333333333</v>
+        <v>5.443148666666667</v>
       </c>
       <c r="N16">
-        <v>13.835821</v>
+        <v>16.329446</v>
       </c>
       <c r="O16">
-        <v>0.6857945991836579</v>
+        <v>0.6668577056245659</v>
       </c>
       <c r="P16">
-        <v>0.6857945991836578</v>
+        <v>0.6668577056245659</v>
       </c>
       <c r="Q16">
-        <v>210.4588546787777</v>
+        <v>263.4539728796672</v>
       </c>
       <c r="R16">
-        <v>1894.129692108999</v>
+        <v>2371.085755917004</v>
       </c>
       <c r="S16">
-        <v>0.6240518129047805</v>
+        <v>0.6112005498890117</v>
       </c>
       <c r="T16">
-        <v>0.6240518129047804</v>
+        <v>0.6112005498890116</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.633473</v>
+        <v>48.40102466666667</v>
       </c>
       <c r="H17">
-        <v>136.900419</v>
+        <v>145.203074</v>
       </c>
       <c r="I17">
-        <v>0.9099689814525027</v>
+        <v>0.9165381830844606</v>
       </c>
       <c r="J17">
-        <v>0.9099689814525026</v>
+        <v>0.9165381830844604</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.07532033333333334</v>
+        <v>0.02775866666666667</v>
       </c>
       <c r="N17">
-        <v>0.225961</v>
+        <v>0.083276</v>
       </c>
       <c r="O17">
-        <v>0.01120011840469304</v>
+        <v>0.003400803817446799</v>
       </c>
       <c r="P17">
-        <v>0.01120011840469304</v>
+        <v>0.003400803817446798</v>
       </c>
       <c r="Q17">
-        <v>3.437128397517667</v>
+        <v>1.343547910047111</v>
       </c>
       <c r="R17">
-        <v>30.934155577659</v>
+        <v>12.091931190424</v>
       </c>
       <c r="S17">
-        <v>0.01019176033686596</v>
+        <v>0.003116966551869386</v>
       </c>
       <c r="T17">
-        <v>0.01019176033686596</v>
+        <v>0.003116966551869385</v>
       </c>
     </row>
   </sheetData>
